--- a/Indicateur de confiance des ménages/traitement knime/indicateur-confiance-menage-2017.xlsx
+++ b/Indicateur de confiance des ménages/traitement knime/indicateur-confiance-menage-2017.xlsx
@@ -69,7 +69,62 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mean(Indicateur synthétique)</t>
+          <t>Indicateur synthétique</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Niveau de vie en France - évolution passée</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Niveau de vie en France - perspectives d'évolution</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Chômage - perspectives d'évolution</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Prix - évolution passée</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Prix - perspectives d'évolution</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Opportunité de faire des achats importants</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Opportunité d'épargner</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Capacité d'épargne actuelle</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Situation financière personnelle - évolution passée</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Situation financière personnelle - perspectives d'évolution</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Capacité d'épargne future</t>
         </is>
       </c>
     </row>
@@ -82,6 +137,39 @@
       <c r="B2" t="n">
         <v>103.27679191997316</v>
       </c>
+      <c r="C2" t="n">
+        <v>-42.416666666666664</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-17.999999999999996</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.416666666666668</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-50.08333333333333</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-29.916666666666668</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-4.166666666666666</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.583333333333334</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-19.333333333333332</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-2.6666666666666665</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
